--- a/DataBackups/17.xlsx
+++ b/DataBackups/17.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,14 +481,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,14 +577,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -673,14 +673,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -811,24 +811,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -837,24 +837,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -917,14 +917,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -943,14 +943,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -959,24 +959,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -985,24 +985,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1011,24 +1011,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1185,24 +1185,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1333,24 +1333,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1359,24 +1359,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1517,14 +1517,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1611,24 +1611,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1811,24 +1811,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1863,24 +1863,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2047,14 +2047,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2089,24 +2089,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2115,24 +2115,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2141,24 +2141,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2193,17 +2193,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2351,14 +2351,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2377,14 +2377,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2393,24 +2393,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2419,24 +2419,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2445,24 +2445,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2471,17 +2471,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2497,17 +2497,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2523,17 +2523,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2585,14 +2585,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2611,14 +2611,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2681,14 +2681,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2707,14 +2707,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2723,24 +2723,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2749,24 +2749,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2775,24 +2775,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2801,17 +2801,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2827,17 +2827,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2853,17 +2853,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2879,17 +2879,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2941,14 +2941,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2967,14 +2967,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3037,14 +3037,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3063,14 +3063,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3079,24 +3079,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3105,24 +3105,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3131,24 +3131,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3271,14 +3271,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3297,14 +3297,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3323,14 +3323,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3339,24 +3339,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3445,14 +3445,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3461,24 +3461,24 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3487,24 +3487,24 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3513,24 +3513,24 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3539,17 +3539,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3591,17 +3591,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3617,17 +3617,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3653,14 +3653,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3705,14 +3705,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3721,24 +3721,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -3747,24 +3747,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3827,14 +3827,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E136" t="n">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3853,14 +3853,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3869,24 +3869,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3895,24 +3895,24 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3921,24 +3921,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3973,17 +3973,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4025,17 +4025,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4087,14 +4087,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -4113,14 +4113,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4129,24 +4129,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -4155,24 +4155,24 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4186,19 +4186,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4303,24 +4303,24 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4329,24 +4329,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4355,24 +4355,24 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4381,17 +4381,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4407,17 +4407,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -4433,17 +4433,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4495,14 +4495,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Clarrie</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4547,14 +4547,14 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4563,24 +4563,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -4589,24 +4589,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -4620,19 +4620,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -4641,24 +4641,24 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
